--- a/test.xlsx
+++ b/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12100"/>
+    <workbookView windowWidth="28800" windowHeight="11980"/>
   </bookViews>
   <sheets>
     <sheet name="pcapp" sheetId="2" r:id="rId1"/>
@@ -13,12 +13,20 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1">
+  <si>
+    <t>mergedemo</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -59,12 +67,28 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
@@ -72,6 +96,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
@@ -79,9 +111,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -96,67 +167,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -164,24 +174,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -202,25 +210,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -238,145 +384,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -399,11 +407,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -412,7 +426,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -428,6 +442,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -457,177 +495,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -975,7 +983,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="13.2" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -994,7 +1002,9 @@
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="84" customHeight="1" spans="1:2">
-      <c r="A2" s="3"/>
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="B2" s="4"/>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -14,9 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2">
   <si>
     <t>mergedemo</t>
+  </si>
+  <si>
+    <t>v1</t>
   </si>
 </sst>
 </file>
@@ -24,10 +27,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -59,15 +62,114 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -81,78 +183,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -165,35 +197,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -204,25 +207,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -234,157 +387,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,26 +410,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -441,6 +429,21 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -463,9 +466,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -487,10 +492,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -500,145 +503,145 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -980,13 +983,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="13.2" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="13.2" outlineLevelRow="2" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="24.8583333333333" style="2" customWidth="1"/>
     <col min="2" max="2" width="32.6333333333333" style="2" customWidth="1"/>
@@ -1007,6 +1010,11 @@
       </c>
       <c r="B2" s="4"/>
     </row>
+    <row r="3" ht="14" spans="1:1">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -14,12 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3">
   <si>
     <t>mergedemo</t>
   </si>
   <si>
     <t>v1</t>
+  </si>
+  <si>
+    <t>v2</t>
   </si>
 </sst>
 </file>
@@ -29,8 +32,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -61,6 +64,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
@@ -68,22 +86,67 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -91,8 +154,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -116,22 +188,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -141,60 +198,6 @@
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -207,19 +210,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -231,163 +336,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -414,22 +417,42 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -450,27 +473,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -489,159 +501,150 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -983,13 +986,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="13.2" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="13.2" outlineLevelRow="3" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="24.8583333333333" style="2" customWidth="1"/>
     <col min="2" max="2" width="32.6333333333333" style="2" customWidth="1"/>
@@ -1015,6 +1018,11 @@
         <v>1</v>
       </c>
     </row>
+    <row r="4" ht="14" spans="1:1">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
